--- a/medicine/Enfance/Sans_Atout,_le_cadavre_fait_le_mort/Sans_Atout,_le_cadavre_fait_le_mort.xlsx
+++ b/medicine/Enfance/Sans_Atout,_le_cadavre_fait_le_mort/Sans_Atout,_le_cadavre_fait_le_mort.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sans Atout, le cadavre fait le mort est un roman policier pour la jeunesse de Boileau-Narcejac, paru en 1987. C'est le septième roman sur huit consacré aux aventures de Sans-Atout.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jeune François passe ses vacances de Toussaint chez son oncle Robert, un professeur qui habite à Saint-Vincent-la-Rivière, un petit village près de Paris. Robert est responsable du plan ORSEC. Ce plan consiste à voir combien de temps les secours mettent à arriver sur le lieu de l'accident et comment les hôpitaux s'organisent quand il y a des urgences. Pour ça, il faut des volontaires qui feront semblant d'être blessés. François va participer au déroulement du plan. 
 Le jour de l’examen du plan, François doit se mettre à l'arrière d'un bus et attendre qu’on vienne le sauver. Il attend longtemps ! Lorsque les secours arrivent enfin, on s’aperçoit qu’un certain Corbineau a été assassiné. La nouvelle se répand très vite dans le village. La police a trouvé sur le corps une lettre anonyme qui disait : « C'est ton tour. Mais il y en aura d'autres. » Elle était signée : "Le Hibou". 
